--- a/ig/ch-epr-term/ValueSet-DocumentEntry.typeCode.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.typeCode.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT Swiss " r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,9 +91,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Type of document as per Annex 3 EPRO-FDHA.
-The code defines a document’s type (e.g. discharge report, laboratory report). Each document type should be assigned to precisely one document class.
-</t>
+    <t>Type of document as per Annex 3 EPRO-FDHA.
+The code defines a document’s type (e.g. discharge report, laboratory report). Each document type should be assigned to precisely one document class.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -126,7 +125,13 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>urn:oid:2.16.756.5.30.1.127.3.4</t>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>787148009</t>
+  </si>
+  <si>
+    <t>Digital representation of specimen (record artifact)</t>
   </si>
   <si>
     <t>371529009</t>
@@ -186,7 +191,7 @@
     <t>761938008</t>
   </si>
   <si>
-    <t>Medical prescription record (record artifact)</t>
+    <t>Medicinal prescription record (record artifact)</t>
   </si>
   <si>
     <t>722446000</t>
@@ -271,9 +276,6 @@
   </si>
   <si>
     <t>Medication summary document (record artifact)</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -395,10 +397,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -599,7 +601,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -811,18 +813,26 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B27" t="s" s="2">
-        <v>85</v>
+      <c r="B28" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-epr-term/ValueSet-DocumentEntry.typeCode.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.typeCode.xlsx
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.756.5.30.1.127.3.10.1.27 (use: OFFICIAL)</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:2.16.756.5.30.1.127.3.10.1.27 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
